--- a/Files/college_info/all_colleges/KITS/KITS_placements.xlsx
+++ b/Files/college_info/all_colleges/KITS/KITS_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\KITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D6F0C3-6B69-470B-AD97-3060531CA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA400B00-5745-4673-A953-358FE8986357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -762,7 +762,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
